--- a/docs/pm/面向监控的服务平台开发阶段-任务分工20181228.xlsx
+++ b/docs/pm/面向监控的服务平台开发阶段-任务分工20181228.xlsx
@@ -292,10 +292,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -341,14 +341,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -362,45 +385,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -416,21 +409,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -438,9 +416,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -453,16 +430,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,6 +470,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -485,7 +485,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,61 +626,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,97 +782,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,17 +973,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,7 +998,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1039,6 +1030,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1052,172 +1067,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="49" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1288,9 +1288,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1769,7 +1766,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25" customHeight="1"/>
@@ -1799,25 +1796,25 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="39" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1837,18 +1834,18 @@
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G2" s="38">
+      <c r="F2" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G2" s="37">
         <v>43469</v>
       </c>
-      <c r="H2" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
+      <c r="H2" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I2" s="37"/>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:11">
       <c r="A3" s="9"/>
@@ -1862,18 +1859,18 @@
       <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G3" s="38">
+      <c r="F3" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G3" s="37">
         <v>43469</v>
       </c>
-      <c r="H3" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
+      <c r="H3" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:11">
       <c r="A4" s="9"/>
@@ -1887,18 +1884,18 @@
       <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G4" s="38">
+      <c r="F4" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G4" s="37">
         <v>43469</v>
       </c>
-      <c r="H4" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
+      <c r="H4" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I4" s="37"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:11">
       <c r="A5" s="9"/>
@@ -1914,18 +1911,18 @@
       <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G5" s="38">
+      <c r="F5" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G5" s="37">
         <v>43469</v>
       </c>
-      <c r="H5" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
+      <c r="H5" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I5" s="37"/>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:11">
       <c r="A6" s="9"/>
@@ -1939,18 +1936,18 @@
       <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G6" s="38">
+      <c r="F6" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G6" s="37">
         <v>43469</v>
       </c>
-      <c r="H6" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42"/>
+      <c r="H6" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I6" s="37"/>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:11">
       <c r="A7" s="9"/>
@@ -1966,18 +1963,18 @@
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G7" s="38">
+      <c r="F7" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G7" s="37">
         <v>43469</v>
       </c>
-      <c r="H7" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
+      <c r="H7" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:11">
       <c r="A8" s="9"/>
@@ -1993,18 +1990,18 @@
       <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G8" s="38">
+      <c r="F8" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G8" s="37">
         <v>43469</v>
       </c>
-      <c r="H8" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
+      <c r="H8" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:11">
       <c r="A9" s="9"/>
@@ -2018,18 +2015,18 @@
       <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G9" s="38">
+      <c r="F9" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G9" s="37">
         <v>43469</v>
       </c>
-      <c r="H9" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
+      <c r="H9" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:11">
       <c r="A10" s="9"/>
@@ -2043,18 +2040,18 @@
       <c r="E10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G10" s="38">
+      <c r="F10" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G10" s="37">
         <v>43469</v>
       </c>
-      <c r="H10" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
+      <c r="H10" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:11">
       <c r="A11" s="9"/>
@@ -2068,18 +2065,18 @@
       <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G11" s="38">
+      <c r="F11" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G11" s="37">
         <v>43469</v>
       </c>
-      <c r="H11" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
+      <c r="H11" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:11">
       <c r="A12" s="9"/>
@@ -2093,18 +2090,18 @@
       <c r="E12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G12" s="38">
+      <c r="F12" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G12" s="37">
         <v>43474</v>
       </c>
-      <c r="H12" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="42"/>
+      <c r="H12" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:11">
       <c r="A13" s="9"/>
@@ -2120,18 +2117,18 @@
       <c r="E13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G13" s="38">
+      <c r="F13" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G13" s="37">
         <v>43474</v>
       </c>
-      <c r="H13" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
+      <c r="H13" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I13" s="37"/>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:11">
       <c r="A14" s="9"/>
@@ -2147,12 +2144,12 @@
       <c r="E14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:11">
       <c r="A15" s="9"/>
@@ -2168,18 +2165,18 @@
       <c r="E15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G15" s="38">
+      <c r="F15" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G15" s="37">
         <v>43469</v>
       </c>
-      <c r="H15" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="42"/>
+      <c r="H15" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:11">
       <c r="A16" s="9"/>
@@ -2193,12 +2190,12 @@
       <c r="E16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:11">
       <c r="A17" s="9"/>
@@ -2214,12 +2211,12 @@
       <c r="E17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:11">
       <c r="A18" s="9"/>
@@ -2233,12 +2230,12 @@
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:11">
       <c r="A19" s="22" t="s">
@@ -2256,21 +2253,21 @@
       <c r="E19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G19" s="38">
+      <c r="F19" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G19" s="37">
         <v>43469</v>
       </c>
-      <c r="H19" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
+      <c r="H19" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:11">
-      <c r="A20" s="24"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="23"/>
       <c r="C20" s="7" t="s">
         <v>45</v>
@@ -2281,21 +2278,21 @@
       <c r="E20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G20" s="38">
+      <c r="F20" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G20" s="37">
         <v>43469</v>
       </c>
-      <c r="H20" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
+      <c r="H20" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:11">
-      <c r="A21" s="24"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="23"/>
       <c r="C21" s="7" t="s">
         <v>46</v>
@@ -2306,21 +2303,21 @@
       <c r="E21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G21" s="38">
+      <c r="F21" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G21" s="37">
         <v>43469</v>
       </c>
-      <c r="H21" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="42"/>
+      <c r="H21" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:11">
-      <c r="A22" s="24"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="7" t="s">
         <v>47</v>
@@ -2331,22 +2328,22 @@
       <c r="E22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G22" s="38">
+      <c r="F22" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G22" s="37">
         <v>43469</v>
       </c>
-      <c r="H22" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
+      <c r="H22" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:11">
       <c r="A23" s="22"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -2358,16 +2355,16 @@
       <c r="E23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:11">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="7" t="s">
         <v>49</v>
       </c>
@@ -2377,16 +2374,16 @@
       <c r="E24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:11">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="7" t="s">
         <v>50</v>
       </c>
@@ -2396,16 +2393,16 @@
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:11">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="7" t="s">
         <v>51</v>
       </c>
@@ -2415,16 +2412,16 @@
       <c r="E26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:11">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="7" t="s">
         <v>52</v>
       </c>
@@ -2434,16 +2431,16 @@
       <c r="E27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="42"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:11">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="7" t="s">
         <v>53</v>
       </c>
@@ -2453,16 +2450,16 @@
       <c r="E28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="42"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="41"/>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:11">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="7" t="s">
         <v>54</v>
       </c>
@@ -2472,16 +2469,16 @@
       <c r="E29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="42"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:11">
-      <c r="A30" s="24"/>
-      <c r="B30" s="26" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -2493,20 +2490,20 @@
       <c r="E30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G30" s="38">
+      <c r="F30" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G30" s="37">
         <v>43469</v>
       </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="42"/>
+      <c r="H30" s="37"/>
+      <c r="I30" s="37"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:11">
-      <c r="A31" s="24"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="7" t="s">
         <v>57</v>
       </c>
@@ -2516,20 +2513,20 @@
       <c r="E31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G31" s="38">
+      <c r="F31" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G31" s="37">
         <v>43469</v>
       </c>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="42"/>
+      <c r="H31" s="37"/>
+      <c r="I31" s="37"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="41"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:11">
-      <c r="A32" s="24"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="7" t="s">
         <v>58</v>
       </c>
@@ -2539,20 +2536,20 @@
       <c r="E32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G32" s="38">
+      <c r="F32" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G32" s="37">
         <v>43469</v>
       </c>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="42"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="37"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:11">
-      <c r="A33" s="24"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="7" t="s">
         <v>59</v>
       </c>
@@ -2562,20 +2559,20 @@
       <c r="E33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G33" s="38">
+      <c r="F33" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G33" s="37">
         <v>43469</v>
       </c>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="42"/>
+      <c r="H33" s="37"/>
+      <c r="I33" s="37"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="41"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:11">
-      <c r="A34" s="24"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -2587,20 +2584,20 @@
       <c r="E34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G34" s="38">
+      <c r="F34" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G34" s="37">
         <v>43469</v>
       </c>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="42"/>
+      <c r="H34" s="37"/>
+      <c r="I34" s="37"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="41"/>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:11">
-      <c r="A35" s="24"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="7" t="s">
         <v>57</v>
       </c>
@@ -2610,20 +2607,20 @@
       <c r="E35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G35" s="38">
+      <c r="F35" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G35" s="37">
         <v>43469</v>
       </c>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="42"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="37"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:11">
-      <c r="A36" s="24"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="7" t="s">
         <v>58</v>
       </c>
@@ -2633,20 +2630,20 @@
       <c r="E36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G36" s="38">
+      <c r="F36" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G36" s="37">
         <v>43469</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="42"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="37"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41"/>
     </row>
     <row r="37" ht="30" customHeight="1" spans="1:11">
-      <c r="A37" s="24"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="7" t="s">
         <v>59</v>
       </c>
@@ -2656,20 +2653,20 @@
       <c r="E37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G37" s="38">
+      <c r="F37" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G37" s="37">
         <v>43469</v>
       </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="42"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="37"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="41"/>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:11">
-      <c r="A38" s="24"/>
-      <c r="B38" s="28" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -2681,16 +2678,16 @@
       <c r="E38" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="42"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="41"/>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:11">
-      <c r="A39" s="24"/>
-      <c r="B39" s="28"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="7" t="s">
         <v>61</v>
       </c>
@@ -2700,16 +2697,16 @@
       <c r="E39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="42"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="41"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:11">
-      <c r="A40" s="24"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="7" t="s">
         <v>62</v>
       </c>
@@ -2719,16 +2716,16 @@
       <c r="E40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="42"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="41"/>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:11">
-      <c r="A41" s="24"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="7" t="s">
         <v>63</v>
       </c>
@@ -2738,16 +2735,16 @@
       <c r="E41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="42"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="41"/>
     </row>
     <row r="42" ht="30" customHeight="1" spans="1:11">
-      <c r="A42" s="24"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="7" t="s">
         <v>64</v>
       </c>
@@ -2757,16 +2754,16 @@
       <c r="E42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="42"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="41"/>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:11">
-      <c r="A43" s="24"/>
-      <c r="B43" s="29" t="s">
+      <c r="A43" s="22"/>
+      <c r="B43" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -2778,16 +2775,16 @@
       <c r="E43" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="43"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="42"/>
     </row>
     <row r="44" ht="30" customHeight="1" spans="1:11">
-      <c r="A44" s="24"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="7" t="s">
         <v>66</v>
       </c>
@@ -2797,16 +2794,16 @@
       <c r="E44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="43"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="42"/>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:11">
-      <c r="A45" s="24"/>
-      <c r="B45" s="30" t="s">
+      <c r="A45" s="22"/>
+      <c r="B45" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -2818,27 +2815,27 @@
       <c r="E45" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="43"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="42"/>
     </row>
     <row r="46" ht="32" customHeight="1" spans="1:11">
-      <c r="A46" s="31"/>
-      <c r="B46" s="32" t="s">
+      <c r="A46" s="30"/>
+      <c r="B46" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="14">

--- a/docs/pm/面向监控的服务平台开发阶段-任务分工20181228.xlsx
+++ b/docs/pm/面向监控的服务平台开发阶段-任务分工20181228.xlsx
@@ -293,9 +293,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -341,9 +341,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -363,99 +422,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -470,7 +439,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,7 +469,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -626,31 +626,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,37 +758,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -704,91 +776,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,6 +973,39 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -990,30 +1023,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,25 +1053,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1072,148 +1072,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="49" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1765,8 +1765,8 @@
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25" customHeight="1"/>
@@ -1843,7 +1843,9 @@
       <c r="H2" s="37">
         <v>43462</v>
       </c>
-      <c r="I2" s="37"/>
+      <c r="I2" s="37">
+        <v>43468</v>
+      </c>
       <c r="J2" s="40"/>
       <c r="K2" s="41"/>
     </row>
@@ -1893,7 +1895,9 @@
       <c r="H4" s="37">
         <v>43462</v>
       </c>
-      <c r="I4" s="37"/>
+      <c r="I4" s="37">
+        <v>43468</v>
+      </c>
       <c r="J4" s="40"/>
       <c r="K4" s="41"/>
     </row>
@@ -1920,7 +1924,9 @@
       <c r="H5" s="37">
         <v>43462</v>
       </c>
-      <c r="I5" s="37"/>
+      <c r="I5" s="37">
+        <v>43468</v>
+      </c>
       <c r="J5" s="40"/>
       <c r="K5" s="41"/>
     </row>
@@ -1945,7 +1951,9 @@
       <c r="H6" s="37">
         <v>43462</v>
       </c>
-      <c r="I6" s="37"/>
+      <c r="I6" s="37">
+        <v>43468</v>
+      </c>
       <c r="J6" s="40"/>
       <c r="K6" s="41"/>
     </row>
@@ -2126,7 +2134,9 @@
       <c r="H13" s="37">
         <v>43462</v>
       </c>
-      <c r="I13" s="37"/>
+      <c r="I13" s="37">
+        <v>43468</v>
+      </c>
       <c r="J13" s="40"/>
       <c r="K13" s="41"/>
     </row>
@@ -2496,7 +2506,9 @@
       <c r="G30" s="37">
         <v>43469</v>
       </c>
-      <c r="H30" s="37"/>
+      <c r="H30" s="37">
+        <v>43462</v>
+      </c>
       <c r="I30" s="37"/>
       <c r="J30" s="40"/>
       <c r="K30" s="41"/>
@@ -2519,7 +2531,9 @@
       <c r="G31" s="37">
         <v>43469</v>
       </c>
-      <c r="H31" s="37"/>
+      <c r="H31" s="37">
+        <v>43462</v>
+      </c>
       <c r="I31" s="37"/>
       <c r="J31" s="40"/>
       <c r="K31" s="41"/>
@@ -2542,7 +2556,9 @@
       <c r="G32" s="37">
         <v>43469</v>
       </c>
-      <c r="H32" s="37"/>
+      <c r="H32" s="37">
+        <v>43462</v>
+      </c>
       <c r="I32" s="37"/>
       <c r="J32" s="40"/>
       <c r="K32" s="41"/>
@@ -2565,7 +2581,9 @@
       <c r="G33" s="37">
         <v>43469</v>
       </c>
-      <c r="H33" s="37"/>
+      <c r="H33" s="37">
+        <v>43462</v>
+      </c>
       <c r="I33" s="37"/>
       <c r="J33" s="40"/>
       <c r="K33" s="41"/>
@@ -2590,7 +2608,9 @@
       <c r="G34" s="37">
         <v>43469</v>
       </c>
-      <c r="H34" s="37"/>
+      <c r="H34" s="37">
+        <v>43462</v>
+      </c>
       <c r="I34" s="37"/>
       <c r="J34" s="40"/>
       <c r="K34" s="41"/>
@@ -2613,7 +2633,9 @@
       <c r="G35" s="37">
         <v>43469</v>
       </c>
-      <c r="H35" s="37"/>
+      <c r="H35" s="37">
+        <v>43462</v>
+      </c>
       <c r="I35" s="37"/>
       <c r="J35" s="40"/>
       <c r="K35" s="41"/>
@@ -2636,7 +2658,9 @@
       <c r="G36" s="37">
         <v>43469</v>
       </c>
-      <c r="H36" s="37"/>
+      <c r="H36" s="37">
+        <v>43462</v>
+      </c>
       <c r="I36" s="37"/>
       <c r="J36" s="40"/>
       <c r="K36" s="41"/>
@@ -2659,7 +2683,9 @@
       <c r="G37" s="37">
         <v>43469</v>
       </c>
-      <c r="H37" s="37"/>
+      <c r="H37" s="37">
+        <v>43462</v>
+      </c>
       <c r="I37" s="37"/>
       <c r="J37" s="40"/>
       <c r="K37" s="41"/>

--- a/docs/pm/面向监控的服务平台开发阶段-任务分工20181228.xlsx
+++ b/docs/pm/面向监控的服务平台开发阶段-任务分工20181228.xlsx
@@ -292,10 +292,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -355,7 +355,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,32 +392,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,60 +424,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -471,6 +433,28 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,6 +474,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="51">
     <fill>
@@ -626,37 +626,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,127 +776,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,11 +979,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1005,9 +1029,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1026,188 +1067,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="44" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="48" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1217,7 +1217,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1288,9 +1288,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1768,8 +1765,8 @@
   <sheetPr/>
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.625" defaultRowHeight="14.25" customHeight="1"/>
@@ -1799,25 +1796,25 @@
       <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="37" t="s">
+      <c r="H1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="39" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1837,18 +1834,20 @@
       <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G2" s="38">
+      <c r="F2" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G2" s="37">
         <v>43469</v>
       </c>
-      <c r="H2" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I2" s="38"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="42"/>
+      <c r="H2" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I2" s="37">
+        <v>43468</v>
+      </c>
+      <c r="J2" s="40"/>
+      <c r="K2" s="41"/>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:11">
       <c r="A3" s="9"/>
@@ -1862,18 +1861,18 @@
       <c r="E3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G3" s="38">
+      <c r="F3" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G3" s="37">
         <v>43469</v>
       </c>
-      <c r="H3" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I3" s="38"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="42"/>
+      <c r="H3" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I3" s="37"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:11">
       <c r="A4" s="9"/>
@@ -1887,18 +1886,20 @@
       <c r="E4" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G4" s="38">
+      <c r="F4" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G4" s="37">
         <v>43469</v>
       </c>
-      <c r="H4" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I4" s="38"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="42"/>
+      <c r="H4" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I4" s="37">
+        <v>43468</v>
+      </c>
+      <c r="J4" s="40"/>
+      <c r="K4" s="41"/>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:11">
       <c r="A5" s="9"/>
@@ -1914,18 +1915,20 @@
       <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G5" s="38">
+      <c r="F5" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G5" s="37">
         <v>43469</v>
       </c>
-      <c r="H5" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I5" s="38"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="42"/>
+      <c r="H5" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I5" s="37">
+        <v>43468</v>
+      </c>
+      <c r="J5" s="40"/>
+      <c r="K5" s="41"/>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:11">
       <c r="A6" s="9"/>
@@ -1939,18 +1942,20 @@
       <c r="E6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G6" s="38">
+      <c r="F6" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G6" s="37">
         <v>43469</v>
       </c>
-      <c r="H6" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="42"/>
+      <c r="H6" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I6" s="37">
+        <v>43468</v>
+      </c>
+      <c r="J6" s="40"/>
+      <c r="K6" s="41"/>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:11">
       <c r="A7" s="9"/>
@@ -1966,18 +1971,18 @@
       <c r="E7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F7" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G7" s="38">
+      <c r="F7" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G7" s="37">
         <v>43469</v>
       </c>
-      <c r="H7" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I7" s="38"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="42"/>
+      <c r="H7" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I7" s="37"/>
+      <c r="J7" s="40"/>
+      <c r="K7" s="41"/>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:11">
       <c r="A8" s="9"/>
@@ -1993,18 +1998,18 @@
       <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G8" s="38">
+      <c r="F8" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G8" s="37">
         <v>43469</v>
       </c>
-      <c r="H8" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I8" s="38"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="42"/>
+      <c r="H8" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I8" s="37"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="41"/>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:11">
       <c r="A9" s="9"/>
@@ -2018,18 +2023,18 @@
       <c r="E9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G9" s="38">
+      <c r="F9" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G9" s="37">
         <v>43469</v>
       </c>
-      <c r="H9" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I9" s="38"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="42"/>
+      <c r="H9" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I9" s="37"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="41"/>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:11">
       <c r="A10" s="9"/>
@@ -2043,18 +2048,18 @@
       <c r="E10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G10" s="38">
+      <c r="F10" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G10" s="37">
         <v>43469</v>
       </c>
-      <c r="H10" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I10" s="38"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="42"/>
+      <c r="H10" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I10" s="37"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="41"/>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:11">
       <c r="A11" s="9"/>
@@ -2068,18 +2073,18 @@
       <c r="E11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G11" s="38">
+      <c r="F11" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G11" s="37">
         <v>43469</v>
       </c>
-      <c r="H11" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I11" s="38"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="42"/>
+      <c r="H11" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I11" s="37"/>
+      <c r="J11" s="40"/>
+      <c r="K11" s="41"/>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:11">
       <c r="A12" s="9"/>
@@ -2093,18 +2098,18 @@
       <c r="E12" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F12" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G12" s="38">
+      <c r="F12" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G12" s="37">
         <v>43474</v>
       </c>
-      <c r="H12" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I12" s="38"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="42"/>
+      <c r="H12" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I12" s="37"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="41"/>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:11">
       <c r="A13" s="9"/>
@@ -2120,18 +2125,20 @@
       <c r="E13" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F13" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G13" s="38">
+      <c r="F13" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G13" s="37">
         <v>43474</v>
       </c>
-      <c r="H13" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I13" s="38"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="42"/>
+      <c r="H13" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I13" s="37">
+        <v>43468</v>
+      </c>
+      <c r="J13" s="40"/>
+      <c r="K13" s="41"/>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:11">
       <c r="A14" s="9"/>
@@ -2147,12 +2154,12 @@
       <c r="E14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="42"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="41"/>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:11">
       <c r="A15" s="9"/>
@@ -2168,18 +2175,18 @@
       <c r="E15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G15" s="38">
+      <c r="F15" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G15" s="37">
         <v>43469</v>
       </c>
-      <c r="H15" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I15" s="38"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="42"/>
+      <c r="H15" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I15" s="37"/>
+      <c r="J15" s="40"/>
+      <c r="K15" s="41"/>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:11">
       <c r="A16" s="9"/>
@@ -2193,12 +2200,12 @@
       <c r="E16" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="42"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="41"/>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:11">
       <c r="A17" s="9"/>
@@ -2214,12 +2221,12 @@
       <c r="E17" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="42"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="41"/>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:11">
       <c r="A18" s="9"/>
@@ -2233,12 +2240,12 @@
       <c r="E18" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="42"/>
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="41"/>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:11">
       <c r="A19" s="22" t="s">
@@ -2256,21 +2263,21 @@
       <c r="E19" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F19" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G19" s="38">
+      <c r="F19" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G19" s="37">
         <v>43469</v>
       </c>
-      <c r="H19" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I19" s="38"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="42"/>
+      <c r="H19" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I19" s="37"/>
+      <c r="J19" s="40"/>
+      <c r="K19" s="41"/>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:11">
-      <c r="A20" s="24"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="23"/>
       <c r="C20" s="7" t="s">
         <v>45</v>
@@ -2281,21 +2288,21 @@
       <c r="E20" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G20" s="38">
+      <c r="F20" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G20" s="37">
         <v>43469</v>
       </c>
-      <c r="H20" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I20" s="38"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="42"/>
+      <c r="H20" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="41"/>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:11">
-      <c r="A21" s="24"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="23"/>
       <c r="C21" s="7" t="s">
         <v>46</v>
@@ -2306,21 +2313,21 @@
       <c r="E21" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F21" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G21" s="38">
+      <c r="F21" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G21" s="37">
         <v>43469</v>
       </c>
-      <c r="H21" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I21" s="38"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="42"/>
+      <c r="H21" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I21" s="37"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="41"/>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:11">
-      <c r="A22" s="24"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="23"/>
       <c r="C22" s="7" t="s">
         <v>47</v>
@@ -2331,22 +2338,22 @@
       <c r="E22" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F22" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G22" s="38">
+      <c r="F22" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G22" s="37">
         <v>43469</v>
       </c>
-      <c r="H22" s="38">
-        <v>43462</v>
-      </c>
-      <c r="I22" s="38"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="42"/>
+      <c r="H22" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I22" s="37"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="41"/>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:11">
       <c r="A23" s="22"/>
-      <c r="B23" s="25" t="s">
+      <c r="B23" s="24" t="s">
         <v>12</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -2358,16 +2365,16 @@
       <c r="E23" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="42"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="41"/>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:11">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="7" t="s">
         <v>49</v>
       </c>
@@ -2377,16 +2384,16 @@
       <c r="E24" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="42"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="41"/>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:11">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="7" t="s">
         <v>50</v>
       </c>
@@ -2396,16 +2403,16 @@
       <c r="E25" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="42"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="41"/>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:11">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="7" t="s">
         <v>51</v>
       </c>
@@ -2415,16 +2422,16 @@
       <c r="E26" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-      <c r="I26" s="38"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="42"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="41"/>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:11">
-      <c r="A27" s="24"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="7" t="s">
         <v>52</v>
       </c>
@@ -2434,16 +2441,16 @@
       <c r="E27" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="42"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="41"/>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:11">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="7" t="s">
         <v>53</v>
       </c>
@@ -2453,16 +2460,16 @@
       <c r="E28" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="42"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
+      <c r="I28" s="37"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="41"/>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:11">
-      <c r="A29" s="24"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="7" t="s">
         <v>54</v>
       </c>
@@ -2472,16 +2479,16 @@
       <c r="E29" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="42"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="41"/>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:11">
-      <c r="A30" s="24"/>
-      <c r="B30" s="26" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="25" t="s">
         <v>22</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -2493,20 +2500,22 @@
       <c r="E30" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F30" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G30" s="38">
+      <c r="F30" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G30" s="37">
         <v>43469</v>
       </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="38"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="42"/>
+      <c r="H30" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I30" s="37"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:11">
-      <c r="A31" s="24"/>
-      <c r="B31" s="26"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="25"/>
       <c r="C31" s="7" t="s">
         <v>57</v>
       </c>
@@ -2516,20 +2525,22 @@
       <c r="E31" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F31" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G31" s="38">
+      <c r="F31" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G31" s="37">
         <v>43469</v>
       </c>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="42"/>
+      <c r="H31" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I31" s="37"/>
+      <c r="J31" s="40"/>
+      <c r="K31" s="41"/>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:11">
-      <c r="A32" s="24"/>
-      <c r="B32" s="26"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="7" t="s">
         <v>58</v>
       </c>
@@ -2539,20 +2550,22 @@
       <c r="E32" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F32" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G32" s="38">
+      <c r="F32" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G32" s="37">
         <v>43469</v>
       </c>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="42"/>
+      <c r="H32" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I32" s="37"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="41"/>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:11">
-      <c r="A33" s="24"/>
-      <c r="B33" s="26"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="25"/>
       <c r="C33" s="7" t="s">
         <v>59</v>
       </c>
@@ -2562,20 +2575,22 @@
       <c r="E33" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F33" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G33" s="38">
+      <c r="F33" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G33" s="37">
         <v>43469</v>
       </c>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="42"/>
+      <c r="H33" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I33" s="37"/>
+      <c r="J33" s="40"/>
+      <c r="K33" s="41"/>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:11">
-      <c r="A34" s="24"/>
-      <c r="B34" s="27" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="26" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -2587,20 +2602,22 @@
       <c r="E34" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F34" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G34" s="38">
+      <c r="F34" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G34" s="37">
         <v>43469</v>
       </c>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="42"/>
+      <c r="H34" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I34" s="37"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="41"/>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:11">
-      <c r="A35" s="24"/>
-      <c r="B35" s="27"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="7" t="s">
         <v>57</v>
       </c>
@@ -2610,20 +2627,22 @@
       <c r="E35" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G35" s="38">
+      <c r="F35" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G35" s="37">
         <v>43469</v>
       </c>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="42"/>
+      <c r="H35" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I35" s="37"/>
+      <c r="J35" s="40"/>
+      <c r="K35" s="41"/>
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:11">
-      <c r="A36" s="24"/>
-      <c r="B36" s="27"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="7" t="s">
         <v>58</v>
       </c>
@@ -2633,20 +2652,22 @@
       <c r="E36" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F36" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G36" s="38">
+      <c r="F36" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G36" s="37">
         <v>43469</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="42"/>
+      <c r="H36" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I36" s="37"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="41"/>
     </row>
     <row r="37" ht="30" customHeight="1" spans="1:11">
-      <c r="A37" s="24"/>
-      <c r="B37" s="27"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="7" t="s">
         <v>59</v>
       </c>
@@ -2656,20 +2677,22 @@
       <c r="E37" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F37" s="38">
-        <v>43462</v>
-      </c>
-      <c r="G37" s="38">
+      <c r="F37" s="37">
+        <v>43462</v>
+      </c>
+      <c r="G37" s="37">
         <v>43469</v>
       </c>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="42"/>
+      <c r="H37" s="37">
+        <v>43462</v>
+      </c>
+      <c r="I37" s="37"/>
+      <c r="J37" s="40"/>
+      <c r="K37" s="41"/>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:11">
-      <c r="A38" s="24"/>
-      <c r="B38" s="28" t="s">
+      <c r="A38" s="22"/>
+      <c r="B38" s="27" t="s">
         <v>19</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -2681,16 +2704,16 @@
       <c r="E38" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F38" s="38"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="42"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="41"/>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:11">
-      <c r="A39" s="24"/>
-      <c r="B39" s="28"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="27"/>
       <c r="C39" s="7" t="s">
         <v>61</v>
       </c>
@@ -2700,16 +2723,16 @@
       <c r="E39" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F39" s="38"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="42"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="41"/>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:11">
-      <c r="A40" s="24"/>
-      <c r="B40" s="28"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="27"/>
       <c r="C40" s="7" t="s">
         <v>62</v>
       </c>
@@ -2719,16 +2742,16 @@
       <c r="E40" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F40" s="38"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="42"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="37"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="41"/>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:11">
-      <c r="A41" s="24"/>
-      <c r="B41" s="28"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="27"/>
       <c r="C41" s="7" t="s">
         <v>63</v>
       </c>
@@ -2738,16 +2761,16 @@
       <c r="E41" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F41" s="38"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="42"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="37"/>
+      <c r="J41" s="40"/>
+      <c r="K41" s="41"/>
     </row>
     <row r="42" ht="30" customHeight="1" spans="1:11">
-      <c r="A42" s="24"/>
-      <c r="B42" s="28"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="27"/>
       <c r="C42" s="7" t="s">
         <v>64</v>
       </c>
@@ -2757,16 +2780,16 @@
       <c r="E42" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="42"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="37"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="41"/>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:11">
-      <c r="A43" s="24"/>
-      <c r="B43" s="29" t="s">
+      <c r="A43" s="22"/>
+      <c r="B43" s="28" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -2778,16 +2801,16 @@
       <c r="E43" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F43" s="38"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="43"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="37"/>
+      <c r="J43" s="40"/>
+      <c r="K43" s="42"/>
     </row>
     <row r="44" ht="30" customHeight="1" spans="1:11">
-      <c r="A44" s="24"/>
-      <c r="B44" s="29"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="28"/>
       <c r="C44" s="7" t="s">
         <v>66</v>
       </c>
@@ -2797,16 +2820,16 @@
       <c r="E44" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="43"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="37"/>
+      <c r="J44" s="40"/>
+      <c r="K44" s="42"/>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:11">
-      <c r="A45" s="24"/>
-      <c r="B45" s="30" t="s">
+      <c r="A45" s="22"/>
+      <c r="B45" s="29" t="s">
         <v>67</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -2818,27 +2841,27 @@
       <c r="E45" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="43"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="37"/>
+      <c r="J45" s="40"/>
+      <c r="K45" s="42"/>
     </row>
     <row r="46" ht="32" customHeight="1" spans="1:11">
-      <c r="A46" s="31"/>
-      <c r="B46" s="32" t="s">
+      <c r="A46" s="30"/>
+      <c r="B46" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="33"/>
-      <c r="D46" s="33"/>
-      <c r="E46" s="33"/>
-      <c r="F46" s="33"/>
-      <c r="G46" s="33"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="33"/>
-      <c r="J46" s="33"/>
-      <c r="K46" s="33"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="14">
